--- a/biology/Histoire de la zoologie et de la botanique/Gabriel_Alonso_de_Herrera/Gabriel_Alonso_de_Herrera.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gabriel_Alonso_de_Herrera/Gabriel_Alonso_de_Herrera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gabriel Alonso de Herrera (1475 ? – 1540 ?) est un agronome et écrivain espagnol.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au XVIe siècle, les grands traités vont se multiplier en particulier en matière d’agriculture. Après les traités  des agronomes antiques qui concernaient essentiellement l’agriculture méditerranéenne, de nouveaux traités apparaissent même s’ils ne marquent pas de grands progrès sur les techniques du Moyen Âge. 
-Alonso Herrera publia en 1539  le Libro de agricultura. Dans la même veine on peut citer le traité d’Anthony Fitzherbert publié en 1523 et qui connut huit éditions avant 1550, et la Cotivatione de l’Italien Luigi Alamanni (1546). Les premières éditions de la Maison rustique de Charles Estienne, qui devait avoir un succès très prolongé, furent publiées peu après 1530[1].
+Alonso Herrera publia en 1539  le Libro de agricultura. Dans la même veine on peut citer le traité d’Anthony Fitzherbert publié en 1523 et qui connut huit éditions avant 1550, et la Cotivatione de l’Italien Luigi Alamanni (1546). Les premières éditions de la Maison rustique de Charles Estienne, qui devait avoir un succès très prolongé, furent publiées peu après 1530.
 </t>
         </is>
       </c>
